--- a/data/trans_bre/P62-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P62-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-6.125146165390655</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-5.551058035931628</v>
+        <v>-5.55105803593165</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.4513403245905692</v>
@@ -649,7 +649,7 @@
         <v>-0.1694678702826667</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1235018981801038</v>
+        <v>-0.1235018981801042</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-32.97162622129363</v>
+        <v>-32.974174178052</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-10.03692951031253</v>
+        <v>-9.779572793439655</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.71741140521478</v>
+        <v>-10.53079485471636</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-13.09707041719257</v>
+        <v>-12.53245617258485</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5245530021778784</v>
+        <v>-0.5256068291971191</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2765560271019714</v>
+        <v>-0.2754454705003952</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2766558958205747</v>
+        <v>-0.2756672643907251</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2628202688424026</v>
+        <v>-0.2517978328460919</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-20.60172428873685</v>
+        <v>-19.56433001056964</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.5053865807132684</v>
+        <v>-0.2248443071815321</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.505515822571937</v>
+        <v>-1.123198604613362</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.74487284568663</v>
+        <v>1.568996315960294</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.3752272802356987</v>
+        <v>-0.3590623882427125</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.01099865564888578</v>
+        <v>-0.009335763843130876</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.04296085122051421</v>
+        <v>-0.03383845158056761</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.04363044896117283</v>
+        <v>0.03886462077204124</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-19.23391868120889</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-23.60564215800229</v>
+        <v>-23.6056421580023</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.6133651886267404</v>
@@ -749,7 +749,7 @@
         <v>-0.4131688669772803</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.3990673594130919</v>
+        <v>-0.399067359413092</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-40.89853177765711</v>
+        <v>-41.20864310016832</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-18.32326278867361</v>
+        <v>-18.38911482738444</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-25.17448063147392</v>
+        <v>-24.46072032714729</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-29.1837032483136</v>
+        <v>-29.99796237219959</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6723650110838875</v>
+        <v>-0.6750628200189823</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4017895726319751</v>
+        <v>-0.3980627526339246</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5060406401376806</v>
+        <v>-0.493937377932657</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4654605606976092</v>
+        <v>-0.4710911640722645</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-29.96008694348808</v>
+        <v>-29.18877239229057</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-7.841688133765334</v>
+        <v>-7.46243145058023</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-14.07591276507212</v>
+        <v>-13.26284504229284</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-17.01544628423849</v>
+        <v>-17.46871994141746</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.5457034241666739</v>
+        <v>-0.5439736472791377</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1993970769533199</v>
+        <v>-0.1863190348267858</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.3199084950397593</v>
+        <v>-0.3069902557234013</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.3150939504251439</v>
+        <v>-0.3179380435315435</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-25.83961934978917</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-24.19824694263277</v>
+        <v>-24.19824694263276</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.5702366267250233</v>
@@ -849,7 +849,7 @@
         <v>-0.4323675820806698</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.4231712776310097</v>
+        <v>-0.4231712776310094</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-33.53092163261363</v>
+        <v>-33.32010034097345</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-37.19065072414264</v>
+        <v>-37.31380560599596</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-32.74637974971381</v>
+        <v>-33.18263007751821</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-31.0979289602513</v>
+        <v>-30.62814593312741</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6442735469817676</v>
+        <v>-0.6454348158354291</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5878730123153371</v>
+        <v>-0.5822315734053906</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5239608788222048</v>
+        <v>-0.5216794391825992</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4982097201610325</v>
+        <v>-0.4992921590339082</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-21.45729391449597</v>
+        <v>-21.39834518426266</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-24.99594988028225</v>
+        <v>-24.99419761344654</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-18.90428902080704</v>
+        <v>-19.06643283687325</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-17.77488242767279</v>
+        <v>-17.92913142230324</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.4827422679779165</v>
+        <v>-0.4820186698896267</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.4419534908460124</v>
+        <v>-0.4302697999113594</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.3368048460368937</v>
+        <v>-0.343428527610358</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.3304580932583245</v>
+        <v>-0.340512549061404</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-28.8444290981553</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-17.85062088638115</v>
+        <v>-17.85062088638114</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.6214098125883286</v>
@@ -949,7 +949,7 @@
         <v>-0.472155056349611</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3025584341100444</v>
+        <v>-0.3025584341100442</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-41.60896292273108</v>
+        <v>-41.42704163330194</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-32.68050316966539</v>
+        <v>-31.12271476080089</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-37.90845871699439</v>
+        <v>-37.06041362477551</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-25.80584125790196</v>
+        <v>-25.21088194661458</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7272466456222576</v>
+        <v>-0.7444124494486687</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5595719413105972</v>
+        <v>-0.5469571527754711</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5782324334495158</v>
+        <v>-0.5684831662420355</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.399102627193821</v>
+        <v>-0.3952176690466312</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-20.2521135146646</v>
+        <v>-21.28254774328735</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-12.57498251167329</v>
+        <v>-12.07369208313189</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-19.96140241833617</v>
+        <v>-18.54395556359932</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-11.0761590792085</v>
+        <v>-10.52533600575974</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.4441533218431388</v>
+        <v>-0.4719708162860934</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2657809866892654</v>
+        <v>-0.2490927448994706</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.3480215646867269</v>
+        <v>-0.3361958241543876</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2013231114069095</v>
+        <v>-0.1895085001374519</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-16.02262618725489</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-18.87660495199793</v>
+        <v>-18.87660495199794</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.5450341613316644</v>
@@ -1049,7 +1049,7 @@
         <v>-0.3465366659367538</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.3391327594919645</v>
+        <v>-0.3391327594919646</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-32.2962342857772</v>
+        <v>-32.79021508226283</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-17.97484862533558</v>
+        <v>-17.54211405320005</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-18.85538477713542</v>
+        <v>-19.11112878206844</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-22.26195206619503</v>
+        <v>-22.21163571609373</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5802523765429858</v>
+        <v>-0.5820496079124345</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3920610233478452</v>
+        <v>-0.3875097651939591</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3973051120722473</v>
+        <v>-0.3985686309481734</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3834785496590432</v>
+        <v>-0.3828770026801251</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-26.06944238930904</v>
+        <v>-26.35098899662445</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-12.05623205306159</v>
+        <v>-11.81966662655779</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-12.96120708679687</v>
+        <v>-13.07427578865519</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-15.60123285335899</v>
+        <v>-15.26460416849437</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.5013350298265542</v>
+        <v>-0.503650878127703</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.2837846382503846</v>
+        <v>-0.2799379823084017</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.2912369300275319</v>
+        <v>-0.2928772169491632</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.2911623989307615</v>
+        <v>-0.2885743433091516</v>
       </c>
     </row>
     <row r="19">
